--- a/Classifaction_results/Live_results.xlsx
+++ b/Classifaction_results/Live_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\GitHub\BCI-UBC\Classifaction_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC8F39C-F647-47BE-AA1A-F19A1371F155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B9DFD7-F5D4-4BC7-AB89-BC6EAF5A9F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="3" xr2:uid="{A6193DFE-B056-48EB-B0C5-D34798B302A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="4" activeTab="13" xr2:uid="{A6193DFE-B056-48EB-B0C5-D34798B302A3}"/>
   </bookViews>
   <sheets>
     <sheet name="rms v1" sheetId="1" r:id="rId1"/>
@@ -1276,10 +1276,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{B6B50EC9-718B-4821-8EA0-4A1C88A9C3B1}" name="Table1619" displayName="Table1619" ref="A2:C16" totalsRowShown="0">
   <autoFilter ref="A2:C16" xr:uid="{B6B50EC9-718B-4821-8EA0-4A1C88A9C3B1}"/>
@@ -5762,7 +5758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C7884F-1E1A-47E8-A8EE-C741F5418464}">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" workbookViewId="0">
+    <sheetView topLeftCell="F16" workbookViewId="0">
       <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
@@ -6745,8 +6741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8882159A-F450-47DE-86E1-E4F726EEBA4F}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8924,7 +8920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6FA0E6-D574-4A41-A50E-8B025FCA2493}">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="H22" workbookViewId="0">
+    <sheetView topLeftCell="H16" workbookViewId="0">
       <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
@@ -9998,7 +9994,7 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+      <selection activeCell="N23" sqref="N23:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10977,11 +10973,12 @@
     <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="3">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -13393,8 +13390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B2467F-0AE7-45E7-B247-0ABD41ED5E4B}">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E15" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView topLeftCell="E15" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Classifaction_results/Live_results.xlsx
+++ b/Classifaction_results/Live_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\GitHub\BCI-UBC\Classifaction_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B9DFD7-F5D4-4BC7-AB89-BC6EAF5A9F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F80B5B-4F4A-4D7B-BBF8-033D8E0E4BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="4" activeTab="13" xr2:uid="{A6193DFE-B056-48EB-B0C5-D34798B302A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="4" activeTab="10" xr2:uid="{A6193DFE-B056-48EB-B0C5-D34798B302A3}"/>
   </bookViews>
   <sheets>
     <sheet name="rms v1" sheetId="1" r:id="rId1"/>
@@ -3963,7 +3963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B26D9AB-9D38-4AC1-9ED0-00D3F4D8416D}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView topLeftCell="D18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
@@ -6741,7 +6741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8882159A-F450-47DE-86E1-E4F726EEBA4F}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+    <sheetView topLeftCell="D19" workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>

--- a/Classifaction_results/Live_results.xlsx
+++ b/Classifaction_results/Live_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\GitHub\BCI-UBC\Classifaction_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew Jennings\Documents\GitHub\BCI-UBC\Classifaction_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F80B5B-4F4A-4D7B-BBF8-033D8E0E4BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED6D9F8-B255-4D29-A53E-4D1B8F478B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="4" activeTab="10" xr2:uid="{A6193DFE-B056-48EB-B0C5-D34798B302A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A6193DFE-B056-48EB-B0C5-D34798B302A3}"/>
   </bookViews>
   <sheets>
     <sheet name="rms v1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="bp v10" sheetId="5" r:id="rId15"/>
     <sheet name="bp v11" sheetId="8" r:id="rId16"/>
     <sheet name="bp v12" sheetId="9" r:id="rId17"/>
+    <sheet name="bp v13" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2289,13 +2290,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62B8464-4769-433F-9981-DD593168A1A4}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -2309,7 +2310,7 @@
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2344,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2382,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2420,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2458,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2534,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2610,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2648,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2686,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2724,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2800,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2838,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2866,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>7</v>
       </c>
@@ -2895,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M18">
         <v>1</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M19">
         <v>1</v>
       </c>
@@ -2911,7 +2912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M20">
         <v>1</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
         <v>12</v>
       </c>
@@ -2930,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M22">
         <v>1</v>
       </c>
@@ -2938,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J23">
         <v>1</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M24">
         <v>1</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M25">
         <v>1</v>
       </c>
@@ -2965,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>13</v>
       </c>
@@ -2976,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M27">
         <v>1</v>
       </c>
@@ -2984,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J28">
         <v>0</v>
       </c>
@@ -2995,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M29">
         <v>1</v>
       </c>
@@ -3003,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M30">
         <v>1</v>
       </c>
@@ -3011,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M31">
         <v>1</v>
       </c>
@@ -3019,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M32">
         <v>1</v>
       </c>
@@ -3027,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M33">
         <v>1</v>
       </c>
@@ -3035,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M34">
         <v>1</v>
       </c>
@@ -3043,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M35">
         <v>1</v>
       </c>
@@ -3051,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M36">
         <v>1</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M37">
         <v>1</v>
       </c>
@@ -3067,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M38">
         <v>1</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M39">
         <v>1</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M40">
         <v>1</v>
       </c>
@@ -3091,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M41">
         <v>1</v>
       </c>
@@ -3099,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M42">
         <v>1</v>
       </c>
@@ -3131,9 +3132,9 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3181,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3219,7 +3220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3295,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3333,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3371,7 +3372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3485,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3561,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3637,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3675,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>7</v>
       </c>
@@ -3732,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M18">
         <v>1</v>
       </c>
@@ -3740,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M19">
         <v>1</v>
       </c>
@@ -3748,7 +3749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M20">
         <v>1</v>
       </c>
@@ -3756,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
         <v>12</v>
       </c>
@@ -3767,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M22">
         <v>1</v>
       </c>
@@ -3775,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J23">
         <v>0.93330000000000002</v>
       </c>
@@ -3786,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M24">
         <v>1</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M25">
         <v>1</v>
       </c>
@@ -3802,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>13</v>
       </c>
@@ -3813,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M27">
         <v>1</v>
       </c>
@@ -3821,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J28">
         <v>0.08</v>
       </c>
@@ -3832,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M29">
         <v>0</v>
       </c>
@@ -3840,7 +3841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M30">
         <v>1</v>
       </c>
@@ -3848,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M31">
         <v>1</v>
       </c>
@@ -3856,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M32">
         <v>1</v>
       </c>
@@ -3864,7 +3865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M33">
         <v>1</v>
       </c>
@@ -3872,7 +3873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M34">
         <v>1</v>
       </c>
@@ -3880,7 +3881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M35">
         <v>1</v>
       </c>
@@ -3888,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M36">
         <v>1</v>
       </c>
@@ -3896,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M37">
         <v>1</v>
       </c>
@@ -3904,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M38">
         <v>1</v>
       </c>
@@ -3912,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M39">
         <v>1</v>
       </c>
@@ -3920,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M40">
         <v>1</v>
       </c>
@@ -3928,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M41">
         <v>0</v>
       </c>
@@ -3936,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M42">
         <v>1</v>
       </c>
@@ -3963,13 +3964,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B26D9AB-9D38-4AC1-9ED0-00D3F4D8416D}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3988,7 +3989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4081,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4129,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4177,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -4225,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4321,7 +4322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -4369,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -4417,7 +4418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -4465,7 +4466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -4520,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G13">
         <v>0</v>
       </c>
@@ -4558,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G14">
         <v>0</v>
       </c>
@@ -4596,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G15">
         <v>1</v>
       </c>
@@ -4634,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>1</v>
       </c>
@@ -4662,7 +4663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
         <v>7</v>
       </c>
@@ -4691,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:20" x14ac:dyDescent="0.25">
       <c r="S18">
         <v>0</v>
       </c>
@@ -4699,7 +4700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:20" x14ac:dyDescent="0.25">
       <c r="S19">
         <v>1</v>
       </c>
@@ -4707,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:20" x14ac:dyDescent="0.25">
       <c r="S20">
         <v>0</v>
       </c>
@@ -4715,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:20" x14ac:dyDescent="0.25">
       <c r="P21" t="s">
         <v>12</v>
       </c>
@@ -4726,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:20" x14ac:dyDescent="0.25">
       <c r="S22">
         <v>0</v>
       </c>
@@ -4734,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:20" x14ac:dyDescent="0.25">
       <c r="P23">
         <v>0.6</v>
       </c>
@@ -4745,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:20" x14ac:dyDescent="0.25">
       <c r="S24">
         <v>0</v>
       </c>
@@ -4753,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:20" x14ac:dyDescent="0.25">
       <c r="S25">
         <v>0</v>
       </c>
@@ -4761,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:20" x14ac:dyDescent="0.25">
       <c r="P26" t="s">
         <v>13</v>
       </c>
@@ -4772,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:20" x14ac:dyDescent="0.25">
       <c r="S27">
         <v>1</v>
       </c>
@@ -4780,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:20" x14ac:dyDescent="0.25">
       <c r="P28">
         <v>0.44</v>
       </c>
@@ -4791,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:20" x14ac:dyDescent="0.25">
       <c r="S29">
         <v>1</v>
       </c>
@@ -4799,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:20" x14ac:dyDescent="0.25">
       <c r="S30">
         <v>0</v>
       </c>
@@ -4807,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:20" x14ac:dyDescent="0.25">
       <c r="S31">
         <v>1</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:20" x14ac:dyDescent="0.25">
       <c r="S32">
         <v>0</v>
       </c>
@@ -4823,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S33">
         <v>0</v>
       </c>
@@ -4831,7 +4832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S34">
         <v>1</v>
       </c>
@@ -4839,7 +4840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S35">
         <v>1</v>
       </c>
@@ -4847,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S36">
         <v>1</v>
       </c>
@@ -4855,7 +4856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S37">
         <v>0</v>
       </c>
@@ -4863,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S38">
         <v>1</v>
       </c>
@@ -4871,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S39">
         <v>1</v>
       </c>
@@ -4879,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S40">
         <v>1</v>
       </c>
@@ -4887,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S41">
         <v>1</v>
       </c>
@@ -4895,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S42">
         <v>0</v>
       </c>
@@ -4926,9 +4927,9 @@
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4941,7 +4942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5014,7 +5015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -5052,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5090,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5128,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5166,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -5204,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5242,7 +5243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5280,7 +5281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5318,7 +5319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -5356,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -5394,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5432,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -5470,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -5498,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>7</v>
       </c>
@@ -5527,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M18">
         <v>1</v>
       </c>
@@ -5535,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M19">
         <v>1</v>
       </c>
@@ -5543,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M20">
         <v>1</v>
       </c>
@@ -5551,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
         <v>12</v>
       </c>
@@ -5562,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M22">
         <v>0</v>
       </c>
@@ -5570,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J23">
         <v>0.6</v>
       </c>
@@ -5581,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M24">
         <v>1</v>
       </c>
@@ -5589,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M25">
         <v>1</v>
       </c>
@@ -5597,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>13</v>
       </c>
@@ -5608,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M27">
         <v>1</v>
       </c>
@@ -5616,7 +5617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J28">
         <v>0.33329999999999999</v>
       </c>
@@ -5627,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M29">
         <v>0</v>
       </c>
@@ -5635,7 +5636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M30">
         <v>0</v>
       </c>
@@ -5643,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M31">
         <v>1</v>
       </c>
@@ -5651,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M32">
         <v>1</v>
       </c>
@@ -5659,7 +5660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M33">
         <v>1</v>
       </c>
@@ -5667,7 +5668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M34">
         <v>1</v>
       </c>
@@ -5675,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M35">
         <v>1</v>
       </c>
@@ -5683,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M36">
         <v>1</v>
       </c>
@@ -5691,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M37">
         <v>1</v>
       </c>
@@ -5699,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M38">
         <v>1</v>
       </c>
@@ -5707,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M39">
         <v>1</v>
       </c>
@@ -5715,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M40">
         <v>0</v>
       </c>
@@ -5723,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M41">
         <v>1</v>
       </c>
@@ -5731,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M42">
         <v>1</v>
       </c>
@@ -5758,13 +5759,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C7884F-1E1A-47E8-A8EE-C741F5418464}">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="F16" workbookViewId="0">
+    <sheetView topLeftCell="F10" workbookViewId="0">
       <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -5787,7 +5788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5832,7 +5833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5880,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5928,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5976,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6024,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -6072,7 +6073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -6120,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -6168,7 +6169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -6216,7 +6217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -6264,7 +6265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -6312,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -6360,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -6408,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H15">
         <v>1</v>
       </c>
@@ -6446,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>2</v>
       </c>
@@ -6481,7 +6482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:21" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
         <v>7</v>
       </c>
@@ -6510,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T18">
         <v>1</v>
       </c>
@@ -6518,7 +6519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T19">
         <v>1</v>
       </c>
@@ -6526,7 +6527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T20">
         <v>1</v>
       </c>
@@ -6534,7 +6535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:21" x14ac:dyDescent="0.25">
       <c r="Q21" t="s">
         <v>12</v>
       </c>
@@ -6545,7 +6546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T22">
         <v>0</v>
       </c>
@@ -6553,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:21" x14ac:dyDescent="0.25">
       <c r="Q23">
         <v>0.6</v>
       </c>
@@ -6564,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T24">
         <v>1</v>
       </c>
@@ -6572,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T25">
         <v>0</v>
       </c>
@@ -6580,7 +6581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:21" x14ac:dyDescent="0.25">
       <c r="Q26" t="s">
         <v>13</v>
       </c>
@@ -6591,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T27">
         <v>1</v>
       </c>
@@ -6599,7 +6600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:21" x14ac:dyDescent="0.25">
       <c r="Q28">
         <v>0.33329999999999999</v>
       </c>
@@ -6610,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T29">
         <v>0</v>
       </c>
@@ -6618,7 +6619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T30">
         <v>0</v>
       </c>
@@ -6626,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T31">
         <v>0</v>
       </c>
@@ -6634,7 +6635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T32">
         <v>0</v>
       </c>
@@ -6642,7 +6643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T33">
         <v>0</v>
       </c>
@@ -6650,7 +6651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T34">
         <v>0</v>
       </c>
@@ -6658,7 +6659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T35">
         <v>0</v>
       </c>
@@ -6666,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T36">
         <v>1</v>
       </c>
@@ -6674,7 +6675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T37">
         <v>1</v>
       </c>
@@ -6682,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T38">
         <v>1</v>
       </c>
@@ -6690,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T39">
         <v>0</v>
       </c>
@@ -6698,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T40">
         <v>1</v>
       </c>
@@ -6706,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T41">
         <v>1</v>
       </c>
@@ -6714,7 +6715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T42">
         <v>0</v>
       </c>
@@ -6745,9 +6746,9 @@
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -6770,7 +6771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6815,7 +6816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -6863,7 +6864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -6911,7 +6912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -6959,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -7007,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -7055,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7103,7 +7104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -7151,7 +7152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -7199,7 +7200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -7247,7 +7248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7295,7 +7296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -7343,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -7391,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -7439,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -7477,7 +7478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -7516,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -7534,7 +7535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>2</v>
       </c>
@@ -7549,7 +7550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q20">
         <v>1</v>
       </c>
@@ -7557,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q21">
         <v>1</v>
       </c>
@@ -7565,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q22">
         <v>1</v>
       </c>
@@ -7573,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M23" t="s">
         <v>12</v>
       </c>
@@ -7584,7 +7585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q24">
         <v>1</v>
       </c>
@@ -7592,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M25">
         <v>0.8</v>
       </c>
@@ -7603,7 +7604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q26">
         <v>1</v>
       </c>
@@ -7611,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q27">
         <v>0</v>
       </c>
@@ -7619,7 +7620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M28" t="s">
         <v>13</v>
       </c>
@@ -7630,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q29">
         <v>0</v>
       </c>
@@ -7638,7 +7639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M30">
         <v>0.2</v>
       </c>
@@ -7649,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q31">
         <v>1</v>
       </c>
@@ -7657,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q32">
         <v>1</v>
       </c>
@@ -7665,7 +7666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="17:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q33">
         <v>1</v>
       </c>
@@ -7673,7 +7674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="17:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q34">
         <v>1</v>
       </c>
@@ -7681,7 +7682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="17:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q35">
         <v>1</v>
       </c>
@@ -7689,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="17:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q36">
         <v>1</v>
       </c>
@@ -7697,7 +7698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="17:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q37">
         <v>1</v>
       </c>
@@ -7705,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="17:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q38">
         <v>1</v>
       </c>
@@ -7713,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="17:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q39">
         <v>0</v>
       </c>
@@ -7721,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="17:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q40">
         <v>1</v>
       </c>
@@ -7729,7 +7730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="17:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q41">
         <v>0</v>
       </c>
@@ -7737,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="17:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q42">
         <v>1</v>
       </c>
@@ -7764,16 +7765,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B2E6FF-252F-453C-B6AA-2D7138C75044}">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView topLeftCell="G19" workbookViewId="0">
+    <sheetView topLeftCell="G10" workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -7796,7 +7797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7848,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -7896,7 +7897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7944,7 +7945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7992,7 +7993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -8040,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -8088,7 +8089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -8136,7 +8137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -8184,7 +8185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -8232,7 +8233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -8280,7 +8281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -8328,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -8376,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -8424,7 +8425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -8472,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -8510,7 +8511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -8549,7 +8550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -8567,7 +8568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -8585,7 +8586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -8606,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -8624,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -8645,7 +8646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -8663,7 +8664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -8681,7 +8682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -8702,7 +8703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -8720,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -8741,7 +8742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -8759,7 +8760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -8777,7 +8778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -8795,7 +8796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -8813,7 +8814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U32">
         <v>1</v>
       </c>
@@ -8821,7 +8822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="21:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U33">
         <v>1</v>
       </c>
@@ -8829,7 +8830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="21:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U34">
         <v>1</v>
       </c>
@@ -8837,7 +8838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="21:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U35">
         <v>1</v>
       </c>
@@ -8845,7 +8846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="21:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U36">
         <v>1</v>
       </c>
@@ -8853,7 +8854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="21:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U37">
         <v>1</v>
       </c>
@@ -8861,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="21:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U38">
         <v>1</v>
       </c>
@@ -8869,7 +8870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="21:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U39">
         <v>1</v>
       </c>
@@ -8877,7 +8878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="21:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U40">
         <v>1</v>
       </c>
@@ -8885,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="21:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U41">
         <v>1</v>
       </c>
@@ -8893,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="21:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U42">
         <v>1</v>
       </c>
@@ -8924,9 +8925,9 @@
       <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -8956,7 +8957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9001,7 +9002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -9049,7 +9050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -9097,7 +9098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -9145,7 +9146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -9193,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -9241,7 +9242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -9289,7 +9290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -9337,7 +9338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -9385,7 +9386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -9433,7 +9434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -9481,7 +9482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -9529,7 +9530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -9577,7 +9578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -9625,7 +9626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -9663,7 +9664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -9702,7 +9703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -9720,7 +9721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -9738,7 +9739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -9756,7 +9757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -9774,7 +9775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -9792,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -9810,7 +9811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T24">
         <v>0</v>
       </c>
@@ -9818,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>12</v>
       </c>
@@ -9829,7 +9830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T26">
         <v>0</v>
       </c>
@@ -9837,7 +9838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R27">
         <v>0.2</v>
       </c>
@@ -9848,7 +9849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T28">
         <v>0</v>
       </c>
@@ -9856,7 +9857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T29">
         <v>1</v>
       </c>
@@ -9864,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R30" t="s">
         <v>13</v>
       </c>
@@ -9875,7 +9876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T31">
         <v>0</v>
       </c>
@@ -9883,7 +9884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R32">
         <v>0.82609999999999995</v>
       </c>
@@ -9894,7 +9895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T33">
         <v>0</v>
       </c>
@@ -9902,7 +9903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T34">
         <v>0</v>
       </c>
@@ -9910,7 +9911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T35">
         <v>0</v>
       </c>
@@ -9918,7 +9919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T36">
         <v>0</v>
       </c>
@@ -9926,7 +9927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T37">
         <v>0</v>
       </c>
@@ -9934,7 +9935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T38">
         <v>0</v>
       </c>
@@ -9942,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T39">
         <v>0</v>
       </c>
@@ -9950,7 +9951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T40">
         <v>1</v>
       </c>
@@ -9958,7 +9959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T41">
         <v>0</v>
       </c>
@@ -9966,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T42">
         <v>0</v>
       </c>
@@ -9993,13 +9994,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F388135-6E09-4BF7-8AB0-049C2580E4A8}">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23:N30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -10029,7 +10030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10074,7 +10075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -10122,7 +10123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -10170,7 +10171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -10218,7 +10219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -10266,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -10314,7 +10315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -10362,7 +10363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -10410,7 +10411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -10458,7 +10459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -10506,7 +10507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -10554,7 +10555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -10602,7 +10603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -10650,7 +10651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -10698,7 +10699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H16">
         <v>1</v>
       </c>
@@ -10726,7 +10727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:21" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
         <v>7</v>
       </c>
@@ -10755,7 +10756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T18">
         <v>1</v>
       </c>
@@ -10763,7 +10764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T19">
         <v>0</v>
       </c>
@@ -10771,7 +10772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T20">
         <v>1</v>
       </c>
@@ -10779,7 +10780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T21">
         <v>0</v>
       </c>
@@ -10787,7 +10788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T22">
         <v>1</v>
       </c>
@@ -10795,7 +10796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:21" x14ac:dyDescent="0.25">
       <c r="N23" t="s">
         <v>12</v>
       </c>
@@ -10806,7 +10807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T24">
         <v>0</v>
       </c>
@@ -10814,7 +10815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:21" x14ac:dyDescent="0.25">
       <c r="N25">
         <v>0.75</v>
       </c>
@@ -10825,7 +10826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T26">
         <v>1</v>
       </c>
@@ -10833,7 +10834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T27">
         <v>1</v>
       </c>
@@ -10841,7 +10842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:21" x14ac:dyDescent="0.25">
       <c r="N28" t="s">
         <v>13</v>
       </c>
@@ -10852,7 +10853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T29">
         <v>1</v>
       </c>
@@ -10860,7 +10861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:21" x14ac:dyDescent="0.25">
       <c r="N30">
         <v>0.28000000000000003</v>
       </c>
@@ -10871,7 +10872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T31">
         <v>1</v>
       </c>
@@ -10879,7 +10880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T32">
         <v>1</v>
       </c>
@@ -10887,7 +10888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T33">
         <v>0</v>
       </c>
@@ -10895,7 +10896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T34">
         <v>1</v>
       </c>
@@ -10903,7 +10904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T35">
         <v>1</v>
       </c>
@@ -10911,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T36">
         <v>1</v>
       </c>
@@ -10919,7 +10920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T37">
         <v>0</v>
       </c>
@@ -10927,7 +10928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T38">
         <v>1</v>
       </c>
@@ -10935,7 +10936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T39">
         <v>0</v>
       </c>
@@ -10943,7 +10944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T40">
         <v>1</v>
       </c>
@@ -10951,7 +10952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T41">
         <v>1</v>
       </c>
@@ -10959,7 +10960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T42">
         <v>1</v>
       </c>
@@ -10983,6 +10984,133 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE14BE8-BD65-4905-82BE-4ACEF43A6E72}">
+  <dimension ref="A2:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F571E7EA-7AE2-48BA-8CF6-8C95609BD260}">
   <dimension ref="A1:N42"/>
@@ -10991,9 +11119,9 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -11007,7 +11135,7 @@
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -11042,7 +11170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -11080,7 +11208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -11118,7 +11246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -11156,7 +11284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -11194,7 +11322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -11232,7 +11360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -11270,7 +11398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -11308,7 +11436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -11346,7 +11474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -11384,7 +11512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -11422,7 +11550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -11460,7 +11588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -11498,7 +11626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -11536,7 +11664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -11564,7 +11692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>7</v>
       </c>
@@ -11593,7 +11721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M18">
         <v>0</v>
       </c>
@@ -11601,7 +11729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M19">
         <v>0</v>
       </c>
@@ -11609,7 +11737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M20">
         <v>0</v>
       </c>
@@ -11617,7 +11745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
         <v>12</v>
       </c>
@@ -11628,7 +11756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M22">
         <v>0</v>
       </c>
@@ -11636,7 +11764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J23">
         <v>0</v>
       </c>
@@ -11647,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M24">
         <v>0</v>
       </c>
@@ -11655,7 +11783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M25">
         <v>0</v>
       </c>
@@ -11663,7 +11791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>13</v>
       </c>
@@ -11674,7 +11802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M27">
         <v>0</v>
       </c>
@@ -11682,7 +11810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J28">
         <v>1</v>
       </c>
@@ -11693,7 +11821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M29">
         <v>0</v>
       </c>
@@ -11701,7 +11829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M30">
         <v>0</v>
       </c>
@@ -11709,7 +11837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M31">
         <v>0</v>
       </c>
@@ -11717,7 +11845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M32">
         <v>0</v>
       </c>
@@ -11725,7 +11853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M33">
         <v>0</v>
       </c>
@@ -11733,7 +11861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M34">
         <v>0</v>
       </c>
@@ -11741,7 +11869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M35">
         <v>0</v>
       </c>
@@ -11749,7 +11877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M36">
         <v>0</v>
       </c>
@@ -11757,7 +11885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M37">
         <v>0</v>
       </c>
@@ -11765,7 +11893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M38">
         <v>0</v>
       </c>
@@ -11773,7 +11901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M39">
         <v>0</v>
       </c>
@@ -11781,7 +11909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M40">
         <v>0</v>
       </c>
@@ -11789,7 +11917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M41">
         <v>0</v>
       </c>
@@ -11797,7 +11925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M42">
         <v>0</v>
       </c>
@@ -11829,9 +11957,9 @@
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -11862,7 +11990,7 @@
       </c>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11907,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11955,7 +12083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -12003,7 +12131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -12051,7 +12179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -12099,7 +12227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -12147,7 +12275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -12195,7 +12323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -12243,7 +12371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -12291,7 +12419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -12339,7 +12467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -12387,7 +12515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -12435,7 +12563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -12483,7 +12611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -12531,7 +12659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -12569,7 +12697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -12608,7 +12736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -12626,7 +12754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -12644,7 +12772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -12662,7 +12790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -12683,7 +12811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -12701,7 +12829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -12722,7 +12850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -12740,7 +12868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -12758,7 +12886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -12779,7 +12907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -12797,7 +12925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -12818,7 +12946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -12836,7 +12964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -12854,7 +12982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -12872,7 +13000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -12890,7 +13018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -12908,7 +13036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -12926,7 +13054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -12944,7 +13072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -12962,7 +13090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -12980,7 +13108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -12998,7 +13126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -13016,7 +13144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -13034,7 +13162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -13052,7 +13180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -13070,7 +13198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -13082,7 +13210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -13094,7 +13222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -13106,7 +13234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -13118,7 +13246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -13130,7 +13258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -13142,7 +13270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -13154,7 +13282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -13166,7 +13294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -13178,7 +13306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -13190,7 +13318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -13202,7 +13330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -13214,7 +13342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -13226,7 +13354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -13238,7 +13366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -13250,7 +13378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -13262,7 +13390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -13274,7 +13402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -13286,7 +13414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -13298,7 +13426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -13310,7 +13438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -13322,7 +13450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -13334,7 +13462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -13346,7 +13474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -13358,7 +13486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -13394,9 +13522,9 @@
       <selection activeCell="Q21" sqref="Q21:Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -13427,7 +13555,7 @@
       </c>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13472,7 +13600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -13520,7 +13648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -13568,7 +13696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -13616,7 +13744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -13664,7 +13792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -13712,7 +13840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -13760,7 +13888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -13808,7 +13936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -13856,7 +13984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -13904,7 +14032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -13952,7 +14080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -14000,7 +14128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -14048,7 +14176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -14096,7 +14224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H16">
         <v>0</v>
       </c>
@@ -14124,7 +14252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:21" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
         <v>7</v>
       </c>
@@ -14153,7 +14281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T18">
         <v>0</v>
       </c>
@@ -14161,7 +14289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T19">
         <v>0</v>
       </c>
@@ -14169,7 +14297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T20">
         <v>0</v>
       </c>
@@ -14177,7 +14305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:21" x14ac:dyDescent="0.25">
       <c r="Q21" t="s">
         <v>12</v>
       </c>
@@ -14188,7 +14316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T22">
         <v>0</v>
       </c>
@@ -14196,7 +14324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:21" x14ac:dyDescent="0.25">
       <c r="Q23">
         <v>0.3125</v>
       </c>
@@ -14207,7 +14335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T24">
         <v>0</v>
       </c>
@@ -14215,7 +14343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T25">
         <v>0</v>
       </c>
@@ -14223,7 +14351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:21" x14ac:dyDescent="0.25">
       <c r="Q26" t="s">
         <v>13</v>
       </c>
@@ -14234,7 +14362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T27">
         <v>0</v>
       </c>
@@ -14242,7 +14370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:21" x14ac:dyDescent="0.25">
       <c r="Q28">
         <v>0.8</v>
       </c>
@@ -14253,7 +14381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T29">
         <v>1</v>
       </c>
@@ -14261,7 +14389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T30">
         <v>1</v>
       </c>
@@ -14269,7 +14397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T31">
         <v>1</v>
       </c>
@@ -14277,7 +14405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="9:21" x14ac:dyDescent="0.25">
       <c r="T32">
         <v>1</v>
       </c>
@@ -14285,7 +14413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T33">
         <v>0</v>
       </c>
@@ -14293,7 +14421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T34">
         <v>0</v>
       </c>
@@ -14301,7 +14429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T35">
         <v>0</v>
       </c>
@@ -14309,7 +14437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T36">
         <v>1</v>
       </c>
@@ -14317,7 +14445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T37">
         <v>0</v>
       </c>
@@ -14325,7 +14453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T38">
         <v>0</v>
       </c>
@@ -14333,7 +14461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T39">
         <v>0</v>
       </c>
@@ -14341,7 +14469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T40">
         <v>0</v>
       </c>
@@ -14349,7 +14477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T41">
         <v>1</v>
       </c>
@@ -14357,7 +14485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T42">
         <v>0</v>
       </c>
@@ -14389,9 +14517,9 @@
       <selection activeCell="Q19" sqref="Q19:Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -14422,7 +14550,7 @@
       </c>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14467,7 +14595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -14515,7 +14643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -14563,7 +14691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -14611,7 +14739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -14659,7 +14787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -14707,7 +14835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -14755,7 +14883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -14803,7 +14931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -14851,7 +14979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -14899,7 +15027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -14947,7 +15075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -14995,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -15043,7 +15171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -15091,7 +15219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -15129,7 +15257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -15168,7 +15296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -15186,7 +15314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -15204,7 +15332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -15225,7 +15353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -15243,7 +15371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -15264,7 +15392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -15282,7 +15410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T24">
         <v>1</v>
       </c>
@@ -15290,7 +15418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q25" t="s">
         <v>13</v>
       </c>
@@ -15301,7 +15429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T26">
         <v>0</v>
       </c>
@@ -15309,7 +15437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q27">
         <v>0.28000000000000003</v>
       </c>
@@ -15320,7 +15448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T28">
         <v>0</v>
       </c>
@@ -15328,7 +15456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T29">
         <v>1</v>
       </c>
@@ -15336,7 +15464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T30">
         <v>0</v>
       </c>
@@ -15344,7 +15472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T31">
         <v>1</v>
       </c>
@@ -15352,7 +15480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T32">
         <v>1</v>
       </c>
@@ -15360,7 +15488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T33">
         <v>1</v>
       </c>
@@ -15368,7 +15496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T34">
         <v>1</v>
       </c>
@@ -15376,7 +15504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T35">
         <v>1</v>
       </c>
@@ -15384,7 +15512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T36">
         <v>1</v>
       </c>
@@ -15392,7 +15520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T37">
         <v>1</v>
       </c>
@@ -15400,7 +15528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T38">
         <v>1</v>
       </c>
@@ -15408,7 +15536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T39">
         <v>1</v>
       </c>
@@ -15416,7 +15544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T40">
         <v>0</v>
       </c>
@@ -15424,7 +15552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T41">
         <v>1</v>
       </c>
@@ -15432,7 +15560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T42">
         <v>1</v>
       </c>
@@ -15464,9 +15592,9 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -15479,7 +15607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -15514,7 +15642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -15552,7 +15680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -15590,7 +15718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -15628,7 +15756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -15666,7 +15794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -15704,7 +15832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -15742,7 +15870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -15780,7 +15908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -15818,7 +15946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -15856,7 +15984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -15894,7 +16022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -15932,7 +16060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -15970,7 +16098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -16008,7 +16136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -16036,7 +16164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>7</v>
       </c>
@@ -16065,7 +16193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M18">
         <v>1</v>
       </c>
@@ -16073,7 +16201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M19">
         <v>1</v>
       </c>
@@ -16081,7 +16209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M20">
         <v>1</v>
       </c>
@@ -16089,7 +16217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
         <v>12</v>
       </c>
@@ -16100,7 +16228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M22">
         <v>1</v>
       </c>
@@ -16108,7 +16236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J23">
         <v>1</v>
       </c>
@@ -16119,7 +16247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M24">
         <v>1</v>
       </c>
@@ -16127,7 +16255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M25">
         <v>1</v>
       </c>
@@ -16135,7 +16263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>13</v>
       </c>
@@ -16146,7 +16274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M27">
         <v>1</v>
       </c>
@@ -16154,7 +16282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J28">
         <v>0</v>
       </c>
@@ -16165,7 +16293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M29">
         <v>1</v>
       </c>
@@ -16173,7 +16301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M30">
         <v>1</v>
       </c>
@@ -16181,7 +16309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M31">
         <v>1</v>
       </c>
@@ -16189,7 +16317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M32">
         <v>1</v>
       </c>
@@ -16197,7 +16325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M33">
         <v>1</v>
       </c>
@@ -16205,7 +16333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M34">
         <v>1</v>
       </c>
@@ -16213,7 +16341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M35">
         <v>1</v>
       </c>
@@ -16221,7 +16349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M36">
         <v>1</v>
       </c>
@@ -16229,7 +16357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M37">
         <v>1</v>
       </c>
@@ -16237,7 +16365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M38">
         <v>1</v>
       </c>
@@ -16245,7 +16373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M39">
         <v>1</v>
       </c>
@@ -16253,7 +16381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M40">
         <v>1</v>
       </c>
@@ -16261,7 +16389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M41">
         <v>1</v>
       </c>
@@ -16269,7 +16397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M42">
         <v>1</v>
       </c>
@@ -16300,9 +16428,9 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -16315,7 +16443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -16350,7 +16478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -16388,7 +16516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -16426,7 +16554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -16464,7 +16592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -16502,7 +16630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -16540,7 +16668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -16578,7 +16706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -16616,7 +16744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -16654,7 +16782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -16692,7 +16820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -16730,7 +16858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -16768,7 +16896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -16806,7 +16934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -16844,7 +16972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -16872,7 +17000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>7</v>
       </c>
@@ -16901,7 +17029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M18">
         <v>1</v>
       </c>
@@ -16909,7 +17037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M19">
         <v>1</v>
       </c>
@@ -16917,7 +17045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M20">
         <v>1</v>
       </c>
@@ -16925,7 +17053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
         <v>12</v>
       </c>
@@ -16936,7 +17064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M22">
         <v>1</v>
       </c>
@@ -16944,7 +17072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J23">
         <v>0.9375</v>
       </c>
@@ -16955,7 +17083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M24">
         <v>1</v>
       </c>
@@ -16963,7 +17091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M25">
         <v>1</v>
       </c>
@@ -16971,7 +17099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>13</v>
       </c>
@@ -16982,7 +17110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M27">
         <v>1</v>
       </c>
@@ -16990,7 +17118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J28">
         <v>0</v>
       </c>
@@ -17001,7 +17129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M29">
         <v>0</v>
       </c>
@@ -17009,7 +17137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M30">
         <v>1</v>
       </c>
@@ -17017,7 +17145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M31">
         <v>1</v>
       </c>
@@ -17025,7 +17153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M32">
         <v>1</v>
       </c>
@@ -17033,7 +17161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M33">
         <v>1</v>
       </c>
@@ -17041,7 +17169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M34">
         <v>1</v>
       </c>
@@ -17049,7 +17177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M35">
         <v>1</v>
       </c>
@@ -17057,7 +17185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M36">
         <v>1</v>
       </c>
@@ -17065,7 +17193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M37">
         <v>1</v>
       </c>
@@ -17073,7 +17201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M38">
         <v>1</v>
       </c>
@@ -17081,7 +17209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M39">
         <v>1</v>
       </c>
@@ -17089,7 +17217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M40">
         <v>1</v>
       </c>
@@ -17097,7 +17225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M41">
         <v>1</v>
       </c>
@@ -17105,7 +17233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M42">
         <v>1</v>
       </c>
@@ -17136,9 +17264,9 @@
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -17151,7 +17279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -17186,7 +17314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17224,7 +17352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -17262,7 +17390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -17300,7 +17428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -17338,7 +17466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -17376,7 +17504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -17414,7 +17542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -17452,7 +17580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -17490,7 +17618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -17528,7 +17656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -17566,7 +17694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -17604,7 +17732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -17642,7 +17770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -17680,7 +17808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -17708,7 +17836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>7</v>
       </c>
@@ -17737,7 +17865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M18">
         <v>1</v>
       </c>
@@ -17745,7 +17873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M19">
         <v>0</v>
       </c>
@@ -17753,7 +17881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M20">
         <v>1</v>
       </c>
@@ -17761,7 +17889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M21">
         <v>1</v>
       </c>
@@ -17769,7 +17897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
         <v>12</v>
       </c>
@@ -17780,7 +17908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M23">
         <v>1</v>
       </c>
@@ -17788,7 +17916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J24">
         <v>0.625</v>
       </c>
@@ -17799,7 +17927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M25">
         <v>1</v>
       </c>
@@ -17807,7 +17935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M26">
         <v>1</v>
       </c>
@@ -17815,7 +17943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
         <v>13</v>
       </c>
@@ -17826,7 +17954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M28">
         <v>0</v>
       </c>
@@ -17834,7 +17962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J29">
         <v>0.20830000000000001</v>
       </c>
@@ -17845,7 +17973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M30">
         <v>0</v>
       </c>
@@ -17853,7 +17981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M31">
         <v>1</v>
       </c>
@@ -17861,7 +17989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M32">
         <v>0</v>
       </c>
@@ -17869,7 +17997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M33">
         <v>0</v>
       </c>
@@ -17877,7 +18005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M34">
         <v>0</v>
       </c>
@@ -17885,7 +18013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M35">
         <v>0</v>
       </c>
@@ -17893,7 +18021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M36">
         <v>1</v>
       </c>
@@ -17901,7 +18029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M37">
         <v>1</v>
       </c>
@@ -17909,7 +18037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M38">
         <v>1</v>
       </c>
@@ -17917,7 +18045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M39">
         <v>0</v>
       </c>
@@ -17925,7 +18053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M40">
         <v>1</v>
       </c>
@@ -17933,7 +18061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M41">
         <v>1</v>
       </c>
@@ -17941,7 +18069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M42">
         <v>1</v>
       </c>
@@ -17972,9 +18100,9 @@
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -17987,7 +18115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -18022,7 +18150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -18060,7 +18188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -18098,7 +18226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -18136,7 +18264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -18174,7 +18302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -18212,7 +18340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -18250,7 +18378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -18288,7 +18416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -18326,7 +18454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -18364,7 +18492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -18402,7 +18530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -18440,7 +18568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -18478,7 +18606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -18516,7 +18644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -18544,7 +18672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>7</v>
       </c>
@@ -18573,7 +18701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M18">
         <v>1</v>
       </c>
@@ -18581,7 +18709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M19">
         <v>1</v>
       </c>
@@ -18589,7 +18717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M20">
         <v>1</v>
       </c>
@@ -18597,7 +18725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M21">
         <v>1</v>
       </c>
@@ -18605,7 +18733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
         <v>12</v>
       </c>
@@ -18616,7 +18744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M23">
         <v>1</v>
       </c>
@@ -18624,7 +18752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J24">
         <v>0.8125</v>
       </c>
@@ -18635,7 +18763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M25">
         <v>0</v>
       </c>
@@ -18643,7 +18771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M26">
         <v>0</v>
       </c>
@@ -18651,7 +18779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
         <v>13</v>
       </c>
@@ -18662,7 +18790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M28">
         <v>1</v>
       </c>
@@ -18670,7 +18798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J29">
         <v>0.4</v>
       </c>
@@ -18681,7 +18809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M30">
         <v>1</v>
       </c>
@@ -18689,7 +18817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M31">
         <v>0</v>
       </c>
@@ -18697,7 +18825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M32">
         <v>1</v>
       </c>
@@ -18705,7 +18833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M33">
         <v>1</v>
       </c>
@@ -18713,7 +18841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M34">
         <v>0</v>
       </c>
@@ -18721,7 +18849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M35">
         <v>0</v>
       </c>
@@ -18729,7 +18857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M36">
         <v>1</v>
       </c>
@@ -18737,7 +18865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M37">
         <v>0</v>
       </c>
@@ -18745,7 +18873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M38">
         <v>0</v>
       </c>
@@ -18753,7 +18881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M39">
         <v>0</v>
       </c>
@@ -18761,7 +18889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M40">
         <v>1</v>
       </c>
@@ -18769,7 +18897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M41">
         <v>1</v>
       </c>
@@ -18777,7 +18905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M42">
         <v>0</v>
       </c>
